--- a/student-service-master/doc/log/log_201608040117_shijin.xlsx
+++ b/student-service-master/doc/log/log_201608040117_shijin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -54,13 +54,58 @@
     <t>没有实现，明天实现</t>
   </si>
   <si>
-    <t>15:-17:00</t>
+    <t>15:00-17:00</t>
   </si>
   <si>
     <t>实现昨天内容和向数据库里插入数据</t>
   </si>
   <si>
     <t>JPA配置不懂</t>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+  </si>
+  <si>
+    <t>学习springdata和hibernate</t>
+  </si>
+  <si>
+    <t>项目还有点问题</t>
+  </si>
+  <si>
+    <t>找出并解决问题</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>解决昨天的问题</t>
+  </si>
+  <si>
+    <t>学习jpa 和serizable</t>
+  </si>
+  <si>
+    <t>学习hibernate的几种配置</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习Repositary </t>
+  </si>
+  <si>
+    <t>学习Repositary</t>
+  </si>
+  <si>
+    <t>配置studentservice项目框架并提交</t>
+  </si>
+  <si>
+    <t>16:00-19:00</t>
+  </si>
+  <si>
+    <t>配置studentservice的框架</t>
+  </si>
+  <si>
+    <t>tortoisegit不熟练，多看点资料</t>
   </si>
 </sst>
 </file>
@@ -68,12 +113,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,21 +130,58 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,7 +210,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +225,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -143,91 +264,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +478,70 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,45 +563,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -509,175 +571,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,13 +1097,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="12.2166666666667" customWidth="1"/>
@@ -1125,8 +1163,107 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-service-master/doc/log/log_201608040117_shijin.xlsx
+++ b/student-service-master/doc/log/log_201608040117_shijin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>日期</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>tortoisegit不熟练，多看点资料</t>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+  </si>
+  <si>
+    <t>把课程表插入数据库并用@Query实现对课程表增删改查</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>查询时出现栈溢出</t>
   </si>
 </sst>
 </file>
@@ -113,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,14 +140,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,9 +162,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,6 +198,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -170,8 +236,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,87 +276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,37 +292,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,145 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,8 +489,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,8 +498,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,60 +575,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -577,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,10 +1109,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1265,6 +1277,23 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/student-service-master/doc/log/log_201608040117_shijin.xlsx
+++ b/student-service-master/doc/log/log_201608040117_shijin.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8955" activeTab="1"/>
+    <workbookView windowWidth="14115" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:E10"/>
 </workbook>
 </file>
 
@@ -126,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -139,6 +140,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -146,8 +184,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,13 +201,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -177,22 +209,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,8 +239,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,22 +271,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,45 +283,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -292,79 +293,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,78 +455,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -461,18 +474,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,15 +484,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,6 +550,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -589,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,7 +1063,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1112,10 +1113,10 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A1" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="12.2166666666667" customWidth="1"/>

--- a/student-service-master/doc/log/log_201608040117_shijin.xlsx
+++ b/student-service-master/doc/log/log_201608040117_shijin.xlsx
@@ -2,21 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14115" windowHeight="9960" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:E10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>日期</t>
   </si>
@@ -119,6 +118,96 @@
   </si>
   <si>
     <t>查询时出现栈溢出</t>
+  </si>
+  <si>
+    <t>实现查找</t>
+  </si>
+  <si>
+    <t>复习JPA 及Repositary及其子接口</t>
+  </si>
+  <si>
+    <t>学习springMVC</t>
+  </si>
+  <si>
+    <t>完成一点</t>
+  </si>
+  <si>
+    <t>继续学习</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>创建实体类插入json文件</t>
+  </si>
+  <si>
+    <t>hibernate级联出现问题，已经解决</t>
+  </si>
+  <si>
+    <t>创建region和relation两个类及其dao和service 完成插入数据测试</t>
+  </si>
+  <si>
+    <t>文件太大，插入过慢，用多线程尝试解决</t>
+  </si>
+  <si>
+    <t>实现批量化添加到数据库</t>
+  </si>
+  <si>
+    <t>完成，但是速度还是很慢</t>
+  </si>
+  <si>
+    <t>尝试多线程</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>实现多线程添加数据库</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>看spring里的多线程支持和batch</t>
+  </si>
+  <si>
+    <t>实现了spring batch csv格式的demo</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>学习处理json文件</t>
+  </si>
+  <si>
+    <t>学习spring处理json</t>
+  </si>
+  <si>
+    <t>学习springmvc</t>
+  </si>
+  <si>
+    <t>学习MVC处理机制</t>
+  </si>
+  <si>
+    <t>写个小webdemo</t>
+  </si>
+  <si>
+    <t>写一个webdemo</t>
+  </si>
+  <si>
+    <t>继续学习springmvc</t>
+  </si>
+  <si>
+    <t>解决webdemo出现乱码问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 配置 basecontroller和coursecontroller</t>
+  </si>
+  <si>
+    <t>完成，但是@Autowired出现问题</t>
+  </si>
+  <si>
+    <t>解决注入问题</t>
   </si>
 </sst>
 </file>
@@ -126,9 +215,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -140,14 +229,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -156,7 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,109 +288,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +311,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,187 +382,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +578,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -496,17 +596,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +644,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,51 +673,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,16 +691,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,115 +709,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1152,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1110,13 +1199,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="12.2166666666667" customWidth="1"/>
@@ -1295,6 +1384,210 @@
         <v>33</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/student-service-master/doc/log/log_201608040117_shijin.xlsx
+++ b/student-service-master/doc/log/log_201608040117_shijin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>日期</t>
   </si>
@@ -208,6 +208,57 @@
   </si>
   <si>
     <t>解决注入问题</t>
+  </si>
+  <si>
+    <t>解决@Autowired注入失败</t>
+  </si>
+  <si>
+    <t>学习extjs</t>
+  </si>
+  <si>
+    <t>看ExtJS实战的前三章</t>
+  </si>
+  <si>
+    <t>浏览器访问不出预期效果，路径有问题</t>
+  </si>
+  <si>
+    <t>练习之前的内容</t>
+  </si>
+  <si>
+    <t>看ExtJS model和store处理数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018/6/4</t>
+  </si>
+  <si>
+    <t>练习ExtJS处理Json数据</t>
+  </si>
+  <si>
+    <t>处理数据库获取到的JSON文件</t>
+  </si>
+  <si>
+    <t>console有数据，但加载不出页面</t>
+  </si>
+  <si>
+    <t>修改course的js</t>
+  </si>
+  <si>
+    <t>把数据展示到网页上</t>
+  </si>
+  <si>
+    <t>CourseEdit有问题，去掉它可以加载出页面</t>
+  </si>
+  <si>
+    <t>debug CourseEdit</t>
+  </si>
+  <si>
+    <t>继续修改</t>
+  </si>
+  <si>
+    <t>实现数据库查询</t>
+  </si>
+  <si>
+    <t>修改CourseEdit</t>
   </si>
 </sst>
 </file>
@@ -215,9 +266,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -236,6 +287,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +376,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,51 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -311,67 +423,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -388,181 +439,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,11 +629,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +670,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -631,30 +706,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,139 +742,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1185,7 +1239,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1199,10 +1253,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1588,6 +1642,145 @@
         <v>63</v>
       </c>
     </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/student-service-master/doc/log/log_201608040117_shijin.xlsx
+++ b/student-service-master/doc/log/log_201608040117_shijin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>日期</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>修改CourseEdit</t>
+  </si>
+  <si>
+    <t>继续学习ExtJS的MVC模式</t>
+  </si>
+  <si>
+    <t>新增Administrator实体，实现登录</t>
+  </si>
+  <si>
+    <t>未完成，不知道如何获取表单数据</t>
+  </si>
+  <si>
+    <t>了解数据流通的路线</t>
   </si>
 </sst>
 </file>
@@ -266,10 +278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -287,15 +299,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +390,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -317,15 +406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,17 +423,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,69 +435,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -439,181 +451,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,44 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +665,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,17 +704,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,10 +742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,130 +754,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1253,10 +1265,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1778,8 +1790,39 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>43260</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>43261</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/student-service-master/doc/log/log_201608040117_shijin.xlsx
+++ b/student-service-master/doc/log/log_201608040117_shijin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>日期</t>
   </si>
@@ -271,6 +271,27 @@
   </si>
   <si>
     <t>了解数据流通的路线</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018/6/11</t>
+  </si>
+  <si>
+    <t>手敲一遍extjs的mvc例子</t>
+  </si>
+  <si>
+    <t>写course的js</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018/6/12</t>
+  </si>
+  <si>
+    <t>学习htmlunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018/6/13</t>
+  </si>
+  <si>
+    <t>实现java程序htmlunit百度并返回页面</t>
   </si>
 </sst>
 </file>
@@ -278,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -293,44 +314,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -338,7 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,17 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,8 +349,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +381,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -423,14 +413,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,37 +466,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,121 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,17 +660,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,7 +712,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,49 +757,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,10 +1286,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1824,6 +1845,57 @@
         <v>84</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
